--- a/urls.xlsx
+++ b/urls.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AllMakes\Programming\SkillBox\python_django_team30\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73EF6455-A2E7-4616-88B1-377BB38CF329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B339CD9C-7942-4177-9B2E-693EE0F2A8E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="125">
   <si>
     <t>Раздел</t>
   </si>
@@ -386,6 +386,15 @@
   </si>
   <si>
     <t>index</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Детальная страница продавца</t>
+  </si>
+  <si>
+    <t>/sellers/&lt;seller_slug&gt;/</t>
+  </si>
+  <si>
+    <t>seller_detail</t>
   </si>
 </sst>
 </file>
@@ -458,7 +467,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -473,6 +482,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -777,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1449,6 +1461,27 @@
       </c>
       <c r="G31" s="5"/>
     </row>
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="G32" s="6"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
